--- a/medicine/Psychotrope/Majeur_(bière)/Majeur_(bière).xlsx
+++ b/medicine/Psychotrope/Majeur_(bière)/Majeur_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Majeur_(bi%C3%A8re)</t>
+          <t>Majeur_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Majeur est une bière belge du groupe Colruyt lancée à l'été 2020. 
-Elle est souvent surnommée « la grande sœur de la Cara Pils »[1], boisson du même groupe au degré d'alcool moins élevé[2]. Le Majeur se décline en deux variantes, blond et rouge.
+Elle est souvent surnommée « la grande sœur de la Cara Pils », boisson du même groupe au degré d'alcool moins élevé. Le Majeur se décline en deux variantes, blond et rouge.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Majeur_(bi%C3%A8re)</t>
+          <t>Majeur_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le majeur blond contient 8,5% d'alcool et est produit à partir d'eau, de malt d'orge, de sirop de glucose et de houblon[3]. Le taux d'alcool du majeur rouge s'élève, lui, à 7,5 %. Il est brassé à partir de sucre, d'édulcorant, de malt d'orge et contient 1,5 % de jus de cerise à base de concentré[4]. Cette deuxième bière est donc une bière fruitée forte[5].
-Le majeur provient d'une brasserie inconnue[6]. Il est conseillé de conserver cette bière à l'abri de la lumière et de la chaleur. Le majeur se vend uniquement en canettes de 33 cl[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le majeur blond contient 8,5% d'alcool et est produit à partir d'eau, de malt d'orge, de sirop de glucose et de houblon. Le taux d'alcool du majeur rouge s'élève, lui, à 7,5 %. Il est brassé à partir de sucre, d'édulcorant, de malt d'orge et contient 1,5 % de jus de cerise à base de concentré. Cette deuxième bière est donc une bière fruitée forte.
+Le majeur provient d'une brasserie inconnue. Il est conseillé de conserver cette bière à l'abri de la lumière et de la chaleur. Le majeur se vend uniquement en canettes de 33 cl.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Majeur_(bi%C3%A8re)</t>
+          <t>Majeur_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Approche linguistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que « une Majeur » soit la contraction correcte de « une bière Majeur », l'usage néolouvaniste veut que l'on dise « un Majeur ». Cet usage est déduit du nom blond et rouge des deux variantes de la bière, tous deux adjectifs accordés au masculin. Cette approche linguistique a été découverte par le Kot Oxfam, kot-à-projet de Louvain-la-Neuve.
 </t>
